--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Brain Imaging Procedure Profile (R5)</t>
+    <t>Stroke Brain Imaging Procedure Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
+    <t xml:space="preserve"> Profile for documenting **brain imaging performed during a stroke episode** as a FHIR R5 Procedure.
+**Captures**
+- `code`: imaging modality/protocol (required; standardized via BrainImagingModalityVS).
+- `status`: procedure state (required).
+- `statusReason`: why it was not done (when applicable).
+- `occurrence[x]`: when imaging occurred (recommended/required by invariant when done locally).
+- `extension[timingContext]`: acute/post-acute phase classification relative to encounter start.
+**Typical scenarios**
+1) Imaging completed on-site: `status=completed`, `occurrence[x]` present, `timingContext` optional.
+2) Imaging not performed: `status=not-done`, `statusReason` required.
+3) Imaging performed elsewhere: if your IG uses a “performed elsewhere” indicator extension, rules may allow missing on-site timestamps.
+**Downstream use**
+- Door-to-imaging metrics, protocol utilization, cross-site comparability.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -465,6 +477,20 @@
   <si>
     <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/procedure-timing-context-ext}
 </t>
+  </si>
+  <si>
+    <t>Procedure Timing Context Extension</t>
+  </si>
+  <si>
+    <t>Extension classifying the procedure into a **timing context** relative to encounter start (acute/post-acute).
+**Primary use-case**
+- Operational reporting where “phase of care” is needed for compliance measures.
+**When to use**
+- When you want a stable, comparable phase label across sites (even if absolute times differ or onset time is uncertain).
+**Interpretation guidance**
+- Use `acute` for procedures within 24 hours of encounter start.
+- Use `post-acute` for procedures after 24 hours.
+- Use `unknown` when encounter/timing data are insufficient.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -2770,10 +2796,10 @@
         <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2853,14 +2879,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2882,16 +2908,16 @@
         <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2940,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2969,10 +2995,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2995,19 +3021,19 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3056,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3071,24 +3097,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3111,13 +3137,13 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3168,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3183,13 +3209,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -3197,10 +3223,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3226,13 +3252,13 @@
         <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3282,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3297,13 +3323,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3311,14 +3337,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3337,13 +3363,13 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3394,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3409,13 +3435,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3423,14 +3449,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3449,16 +3475,16 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3508,7 +3534,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3523,24 +3549,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3566,13 +3592,13 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3602,7 +3628,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3620,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3635,13 +3661,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -3649,14 +3675,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3675,16 +3701,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3714,7 +3740,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3732,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3747,13 +3773,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3761,10 +3787,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3787,13 +3813,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3820,13 +3846,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3844,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3862,25 +3888,25 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3899,17 +3925,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3938,7 +3964,7 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3956,7 +3982,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3971,28 +3997,28 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4011,13 +4037,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4068,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
@@ -4083,24 +4109,24 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4123,13 +4149,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4180,7 +4206,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4209,10 +4235,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4235,16 +4261,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4294,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4309,24 +4335,24 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4349,16 +4375,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4408,7 +4434,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4423,24 +4449,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4463,13 +4489,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4520,7 +4546,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4535,13 +4561,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4549,10 +4575,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4575,13 +4601,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4632,7 +4658,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4650,10 +4676,10 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4661,14 +4687,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4687,17 +4713,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4746,7 +4772,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4761,13 +4787,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4775,10 +4801,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4801,13 +4827,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4858,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4870,16 +4896,16 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4887,10 +4913,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4913,13 +4939,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4970,7 +4996,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4979,7 +5005,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>20</v>
@@ -4991,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -4999,14 +5025,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5028,13 +5054,13 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5084,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5113,14 +5139,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5142,16 +5168,16 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5200,7 +5226,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5229,10 +5255,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5255,17 +5281,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5290,13 +5316,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5314,7 +5340,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5329,24 +5355,24 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5369,17 +5395,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5428,7 +5454,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -5437,30 +5463,30 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5483,19 +5509,19 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5544,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5553,7 +5579,7 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
@@ -5565,7 +5591,7 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5573,10 +5599,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5599,13 +5625,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5656,7 +5682,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5685,10 +5711,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5711,13 +5737,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5768,7 +5794,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5786,21 +5812,21 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5823,16 +5849,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5858,13 +5884,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5882,7 +5908,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5897,24 +5923,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5937,16 +5963,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5972,13 +5998,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5996,7 +6022,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6017,18 +6043,18 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6051,16 +6077,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6086,13 +6112,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6110,7 +6136,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6157,7 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6139,10 +6165,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6165,16 +6191,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6224,7 +6250,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6245,7 +6271,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6253,10 +6279,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6279,16 +6305,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6314,13 +6340,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6338,7 +6364,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6359,7 +6385,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6367,10 +6393,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6393,13 +6419,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6426,13 +6452,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6450,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6497,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6479,10 +6505,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6505,13 +6531,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6562,7 +6588,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6577,24 +6603,24 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6617,13 +6643,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6674,7 +6700,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6695,7 +6721,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6703,10 +6729,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6729,13 +6755,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6786,7 +6812,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6795,7 +6821,7 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>20</v>
@@ -6807,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6815,14 +6841,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6844,13 +6870,13 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6900,7 +6926,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6921,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6929,14 +6955,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6958,16 +6984,16 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7016,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7045,10 +7071,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7071,13 +7097,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7104,13 +7130,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7128,7 +7154,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7149,7 +7175,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7157,10 +7183,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7183,13 +7209,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7240,7 +7266,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7261,7 +7287,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7269,10 +7295,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7295,19 +7321,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7332,13 +7358,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7356,7 +7382,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7385,10 +7411,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7411,13 +7437,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7468,7 +7494,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7489,7 +7515,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,9 +94,8 @@
 **Typical scenarios**
 1) Imaging completed on-site: `status=completed`, `occurrence[x]` present, `timingContext` optional.
 2) Imaging not performed: `status=not-done`, `statusReason` required.
-3) Imaging performed elsewhere: if your IG uses a “performed elsewhere” indicator extension, rules may allow missing on-site timestamps.
-**Downstream use**
-- Door-to-imaging metrics, protocol utilization, cross-site comparability.</t>
+3) Imaging performed elsewhere: `status=not-done`, `statusReason` = performedElsewhere, `occurrence[x]` optional (may not have exact time).
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
